--- a/GameAwards2020/Assets/GameMain/DataTables/Sound.xlsx
+++ b/GameAwards2020/Assets/GameMain/DataTables/Sound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\GameAwards2020\GameAwards2020\Assets\GameMain\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408DFCE4-071B-47CF-93C0-A023FC8B63B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33950323-B984-4E1D-A88A-889256983B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>AssetName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拾取音效</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PickUp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -90,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +120,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,11 +151,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,15 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="42.25" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -545,6 +566,32 @@
       </c>
       <c r="I4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
